--- a/na-service/src/test/resources/func/parser/source/real/КорреспонденТ-Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/КорреспонденТ-Source.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="202">
   <si>
     <t>page</t>
   </si>
@@ -52,10 +52,10 @@
     <t>ASIS</t>
   </si>
   <si>
-    <t>article:STARTS</t>
+    <t>article__title:EQUALS</t>
   </si>
   <si>
-    <t>article__title:EQUALS</t>
+    <t>a:HTML_TAG</t>
   </si>
   <si>
     <t>Мир</t>
@@ -1030,9 +1030,7 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1102,9 +1100,7 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1174,9 +1170,7 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1246,9 +1240,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1318,9 +1310,7 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1390,9 +1380,7 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1462,9 +1450,7 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1534,9 +1520,7 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1605,9 +1589,7 @@
       <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1677,9 +1659,7 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>14</v>
       </c>
@@ -1749,9 +1729,7 @@
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1783,9 +1761,7 @@
       <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1855,9 +1831,7 @@
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
@@ -1927,9 +1901,7 @@
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1999,9 +1971,7 @@
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
         <v>14</v>
       </c>
@@ -2071,9 +2041,7 @@
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
         <v>14</v>
       </c>
@@ -2143,9 +2111,7 @@
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
         <v>14</v>
       </c>
@@ -2215,9 +2181,7 @@
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
         <v>14</v>
       </c>
@@ -2287,9 +2251,7 @@
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
@@ -2359,9 +2321,7 @@
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
         <v>14</v>
       </c>
@@ -2431,9 +2391,7 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
         <v>14</v>
       </c>
@@ -2503,9 +2461,7 @@
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
         <v>14</v>
       </c>
@@ -2575,9 +2531,7 @@
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6" t="s">
         <v>14</v>
       </c>
@@ -2647,9 +2601,7 @@
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
         <v>14</v>
       </c>
@@ -2719,9 +2671,7 @@
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
         <v>14</v>
       </c>
@@ -2791,9 +2741,7 @@
       <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2863,9 +2811,7 @@
       <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>14</v>
       </c>
@@ -2935,9 +2881,7 @@
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>14</v>
       </c>
@@ -3007,9 +2951,7 @@
       <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
         <v>14</v>
       </c>
@@ -3079,9 +3021,7 @@
       <c r="E60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
         <v>14</v>
       </c>
@@ -3151,9 +3091,7 @@
       <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
         <v>14</v>
       </c>
@@ -3223,9 +3161,7 @@
       <c r="E64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
         <v>14</v>
       </c>
@@ -3295,9 +3231,7 @@
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
         <v>14</v>
       </c>
@@ -3367,9 +3301,7 @@
       <c r="E68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
         <v>14</v>
       </c>
@@ -3439,9 +3371,7 @@
       <c r="E70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F70" s="6"/>
       <c r="G70" s="6" t="s">
         <v>14</v>
       </c>
@@ -3511,9 +3441,7 @@
       <c r="E72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
         <v>14</v>
       </c>
@@ -3583,9 +3511,7 @@
       <c r="E74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
         <v>14</v>
       </c>
@@ -3655,9 +3581,7 @@
       <c r="E76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
         <v>14</v>
       </c>
@@ -3727,9 +3651,7 @@
       <c r="E78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
         <v>14</v>
       </c>
@@ -3799,9 +3721,7 @@
       <c r="E80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="6" t="s">
         <v>14</v>
       </c>
@@ -3871,9 +3791,7 @@
       <c r="E82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
         <v>14</v>
       </c>
@@ -3943,9 +3861,7 @@
       <c r="E84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="6" t="s">
         <v>14</v>
       </c>
@@ -4015,9 +3931,7 @@
       <c r="E86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="6" t="s">
         <v>14</v>
       </c>
@@ -4087,9 +4001,7 @@
       <c r="E88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="6" t="s">
         <v>14</v>
       </c>
@@ -4159,9 +4071,7 @@
       <c r="E90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
         <v>14</v>
       </c>
@@ -4231,9 +4141,7 @@
       <c r="E92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F92" s="6"/>
       <c r="G92" s="6" t="s">
         <v>14</v>
       </c>
@@ -4303,9 +4211,7 @@
       <c r="E94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F94" s="6"/>
       <c r="G94" s="6" t="s">
         <v>14</v>
       </c>
@@ -4375,9 +4281,7 @@
       <c r="E96" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
         <v>14</v>
       </c>
@@ -4447,9 +4351,7 @@
       <c r="E98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
         <v>14</v>
       </c>
@@ -4519,9 +4421,7 @@
       <c r="E100" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="6" t="s">
         <v>14</v>
       </c>
@@ -4591,9 +4491,7 @@
       <c r="E102" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
         <v>14</v>
       </c>
@@ -4663,9 +4561,7 @@
       <c r="E104" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
         <v>14</v>
       </c>
@@ -4735,9 +4631,7 @@
       <c r="E106" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="6" t="s">
         <v>14</v>
       </c>
@@ -4807,9 +4701,7 @@
       <c r="E108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F108" s="6"/>
       <c r="G108" s="6" t="s">
         <v>14</v>
       </c>
@@ -4879,9 +4771,7 @@
       <c r="E110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="6" t="s">
         <v>14</v>
       </c>
@@ -4951,9 +4841,7 @@
       <c r="E112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
         <v>14</v>
       </c>
@@ -5023,9 +4911,7 @@
       <c r="E114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="6" t="s">
         <v>14</v>
       </c>
@@ -5095,9 +4981,7 @@
       <c r="E116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="6" t="s">
         <v>14</v>
       </c>
@@ -5167,9 +5051,7 @@
       <c r="E118" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F118" s="6"/>
       <c r="G118" s="6" t="s">
         <v>14</v>
       </c>
@@ -5239,9 +5121,7 @@
       <c r="E120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
         <v>14</v>
       </c>
@@ -5311,9 +5191,7 @@
       <c r="E122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
         <v>14</v>
       </c>
@@ -5383,9 +5261,7 @@
       <c r="E124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
         <v>14</v>
       </c>
@@ -5455,9 +5331,7 @@
       <c r="E126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F126" s="6"/>
       <c r="G126" s="6" t="s">
         <v>14</v>
       </c>
@@ -5527,9 +5401,7 @@
       <c r="E128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F128" s="6"/>
       <c r="G128" s="6" t="s">
         <v>14</v>
       </c>
@@ -5599,9 +5471,7 @@
       <c r="E130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F130" s="6"/>
       <c r="G130" s="6" t="s">
         <v>14</v>
       </c>
@@ -5671,9 +5541,7 @@
       <c r="E132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="6" t="s">
         <v>14</v>
       </c>
@@ -5743,9 +5611,7 @@
       <c r="E134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F134" s="6"/>
       <c r="G134" s="6" t="s">
         <v>14</v>
       </c>
@@ -5815,9 +5681,7 @@
       <c r="E136" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F136" s="6"/>
       <c r="G136" s="6" t="s">
         <v>14</v>
       </c>
@@ -5887,9 +5751,7 @@
       <c r="E138" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F138" s="6"/>
       <c r="G138" s="6" t="s">
         <v>14</v>
       </c>
@@ -5959,9 +5821,7 @@
       <c r="E140" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F140" s="6"/>
       <c r="G140" s="6" t="s">
         <v>14</v>
       </c>
@@ -6031,9 +5891,7 @@
       <c r="E142" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F142" s="6"/>
       <c r="G142" s="6" t="s">
         <v>14</v>
       </c>
@@ -6103,9 +5961,7 @@
       <c r="E144" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F144" s="6"/>
       <c r="G144" s="6" t="s">
         <v>14</v>
       </c>
@@ -6175,9 +6031,7 @@
       <c r="E146" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F146" s="6"/>
       <c r="G146" s="6" t="s">
         <v>14</v>
       </c>
@@ -6247,9 +6101,7 @@
       <c r="E148" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
         <v>14</v>
       </c>
@@ -6319,9 +6171,7 @@
       <c r="E150" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F150" s="6"/>
       <c r="G150" s="6" t="s">
         <v>14</v>
       </c>
@@ -6391,9 +6241,7 @@
       <c r="E152" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F152" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F152" s="6"/>
       <c r="G152" s="6" t="s">
         <v>14</v>
       </c>
@@ -6463,9 +6311,7 @@
       <c r="E154" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F154" s="6"/>
       <c r="G154" s="6" t="s">
         <v>14</v>
       </c>
@@ -6535,9 +6381,7 @@
       <c r="E156" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F156" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F156" s="6"/>
       <c r="G156" s="6" t="s">
         <v>14</v>
       </c>
@@ -6607,9 +6451,7 @@
       <c r="E158" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F158" s="6"/>
       <c r="G158" s="6" t="s">
         <v>14</v>
       </c>
